--- a/P&E/PDF/Inferencial/Clase 14 (Método Promedios Móviles).xlsx
+++ b/P&E/PDF/Inferencial/Clase 14 (Método Promedios Móviles).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC4D1A0-424F-4681-83FE-D03F135BD5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E254EFD-FC4E-40DD-B64B-49AB9E9086CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>REFERENCIAS</t>
   </si>
@@ -200,12 +200,30 @@
   <si>
     <t>ERROR = (y - ŷ)</t>
   </si>
+  <si>
+    <r>
+      <t>∑(y - ŷ)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +297,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -330,13 +375,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -346,16 +388,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,8 +450,8 @@
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3684342" cy="679353"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -427,6 +493,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -645,7 +712,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -709,9 +776,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1891415" cy="494110"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -729,7 +796,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2071687" y="3224212"/>
+              <a:off x="128587" y="2109787"/>
               <a:ext cx="1891415" cy="494110"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -757,6 +824,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -911,7 +979,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2071687" y="3224212"/>
+              <a:off x="128587" y="2109787"/>
               <a:ext cx="1891415" cy="494110"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -939,6 +1007,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="es-ES" sz="1600" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1221,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1301,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1261,7 +1330,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1290,10 +1359,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="10">
         <v>2008</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="10"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,348 +1380,348 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>6728.2</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="3" t="str">
         <f>A12&amp;" 2008"</f>
         <v>Ene 2008</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>B12</f>
         <v>6728.2</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>5916.2</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="3" t="str">
         <f t="shared" ref="D13:D23" si="0">A13&amp;" 2008"</f>
         <v>Feb 2008</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" ref="E13:E23" si="1">B13</f>
         <v>5916.2</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>5755.8</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Mar 2008</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>5755.8</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>6581.3</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Abr 2008</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>6581.3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>AVERAGE(E12:E14)</f>
         <v>6133.4000000000005</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>E15-F15</f>
         <v>447.89999999999964</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f>G15^2</f>
         <v>200614.40999999968</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>6711.3</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>May 2008</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>6711.3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" ref="F16:F24" si="2">AVERAGE(E13:E15)</f>
         <v>6084.4333333333334</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" ref="G16:G23" si="3">E16-F16</f>
         <v>626.86666666666679</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" ref="H16:H23" si="4">G16^2</f>
         <v>392961.81777777791</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>6629.6</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jun 2008</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>6629.6</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="2"/>
         <v>6349.4666666666672</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="3"/>
         <v>280.13333333333321</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="4"/>
         <v>78474.68444444437</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>6846.8</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Jul 2008</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>6846.8</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="2"/>
         <v>6640.7333333333336</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="3"/>
         <v>206.06666666666661</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="4"/>
         <v>42463.471111111088</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>7107.5</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Ago 2008</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>7107.5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="2"/>
         <v>6729.2333333333336</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f t="shared" si="3"/>
         <v>378.26666666666642</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="4"/>
         <v>143085.67111111092</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>7295.9</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Sep 2008</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>7295.9</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="2"/>
         <v>6861.3</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>434.59999999999945</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="4"/>
         <v>188877.15999999954</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>7209.4</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Oct 2008</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>7209.4</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
         <v>7083.3999999999987</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>126.00000000000091</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f t="shared" si="4"/>
         <v>15876.000000000229</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>6794.3</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Nov 2008</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>6794.3</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="2"/>
         <v>7204.2666666666664</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
         <v>-409.96666666666624</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="4"/>
         <v>168072.66777777742</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>6652.6</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Dic 2008</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>6652.6</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f t="shared" si="2"/>
         <v>7099.8666666666659</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
         <v>-447.26666666666551</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f t="shared" si="4"/>
         <v>200047.47111111009</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="str">
+      <c r="D24" s="4" t="str">
         <f>"Ene 2009"</f>
         <v>Ene 2009</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6">
+      <c r="E24" s="3"/>
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
         <v>6885.4333333333343</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f>SUM(H15:H23)</f>
         <v>1430473.3533333314</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f>H26</f>
         <v>1430473.3533333314</v>
       </c>
-      <c r="G28" s="9" t="str">
+      <c r="G28" s="11" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="12">
         <f>F28/F29</f>
         <v>158941.4837037035</v>
       </c>
@@ -1662,8 +1731,8 @@
         <f>12-3</f>
         <v>9</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1681,15 +1750,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D87CDA-09BB-4D90-A45E-C25683B3DC8B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -1710,211 +1781,223 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>10500</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>8500</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>9600</v>
       </c>
-      <c r="C4" s="11">
-        <f>AVERAGE(B2:B4)</f>
-        <v>9533.3333333333339</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="13">
+        <f>ROUND(AVERAGE(B2:B4),4)</f>
+        <v>9533.3333000000002</v>
+      </c>
+      <c r="D4" s="13">
         <f>C4-B4</f>
-        <v>-66.66666666666606</v>
-      </c>
-      <c r="E4" s="11">
-        <f>D4^2</f>
-        <v>4444.4444444443634</v>
+        <v>-66.666699999999764</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4444</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>4000</v>
       </c>
-      <c r="C5" s="11">
-        <f t="shared" ref="C5:C10" si="0">AVERAGE(B3:B5)</f>
-        <v>7366.666666666667</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="13">
+        <f t="shared" ref="C5:C10" si="0">ROUND(AVERAGE(B3:B5),4)</f>
+        <v>7366.6666999999998</v>
+      </c>
+      <c r="D5" s="13">
         <f t="shared" ref="D5:D10" si="1">C5-B5</f>
-        <v>3366.666666666667</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" ref="E5:E10" si="2">ROUND(D5^2,0)</f>
+        <v>3366.6666999999998</v>
+      </c>
+      <c r="E5" s="14">
         <v>11334444</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>8800</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
-        <v>7466.666666666667</v>
-      </c>
-      <c r="D6" s="11">
+        <v>7466.6666999999998</v>
+      </c>
+      <c r="D6" s="13">
         <f>C6-B6</f>
-        <v>-1333.333333333333</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="2"/>
-        <v>1777778</v>
+        <v>-1333.3333000000002</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1777777</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>8500</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>7100</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <f t="shared" si="1"/>
         <v>-1400</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
+      <c r="E7" s="14">
         <v>1960000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>7500</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
-        <v>8266.6666666666661</v>
-      </c>
-      <c r="D8" s="11">
+        <v>8266.6666999999998</v>
+      </c>
+      <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>766.66666666666606</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="2"/>
-        <v>587778</v>
+        <v>766.66669999999976</v>
+      </c>
+      <c r="E8" s="14">
+        <v>587777</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>5200</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <f t="shared" si="0"/>
-        <v>7066.666666666667</v>
-      </c>
-      <c r="D9" s="11">
+        <v>7066.6666999999998</v>
+      </c>
+      <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>1866.666666666667</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="2"/>
+        <v>1866.6666999999998</v>
+      </c>
+      <c r="E9" s="14">
         <v>3484444</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>7100</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>6600</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <f t="shared" si="1"/>
         <v>-500</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="2"/>
+      <c r="E10" s="14">
         <v>250000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
-        <v>29</v>
+      <c r="A11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11">
-        <f>SUM(E5:E10)</f>
-        <v>19394444</v>
+      <c r="A12" s="9"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14">
+        <f>SUM(E4:E10)</f>
+        <v>19398886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18">
+        <f>AVERAGE(E4:E10)</f>
+        <v>2771269.4285714286</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="8">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="22">
         <f>E12</f>
-        <v>19394444</v>
-      </c>
-      <c r="D14" s="9" t="str">
+        <v>19398886</v>
+      </c>
+      <c r="D15" s="20" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="E14" s="10">
-        <f>C14/C15</f>
-        <v>2770634.8571428573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="21">
+        <f>ROUND(C15/C16,0)</f>
+        <v>3233148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="23">
+        <f>9-3</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
